--- a/500 暂存/追单流程.xlsx
+++ b/500 暂存/追单流程.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Netnus\library\500 暂存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390754F0-715B-4A84-B140-78584A15B201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7BEC9D-918A-4A80-8A45-03B16C290F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2775" windowWidth="22065" windowHeight="12840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单追单" sheetId="4" r:id="rId1"/>
     <sheet name="复杂追单" sheetId="5" r:id="rId2"/>
+    <sheet name="axcp500效能追单" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>0.5小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,34 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>追单并测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试客户环境缺少根据agli180带出科目得功能，需要追单。#161104-00049#6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户原始需求确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据标准判断是否需要追单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放弃直接追单自己根据标准逻辑和客户版本调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,34 +61,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户原始需求，希望根据成本料件取agli161的存货科目，而费用型料号取费用科目栏位。对比标准环境功能，实际是入库存货科目，费用科目是销售出货用得。费用类科目还可以根据agli180理由码带出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此单涉及到多个作业，目前aapt430分摊等作业，客户并未启用，所以暂时不追，只追应付请款模块。追单测试功能能实现后，和客户确认后搬到客户正式区。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aapt430费用分摊没有分摊到料件指定的批号上，反而分摊到没有批号的批次上。测试问题原因是多仓储批入库的时候，分摊没有抓取仓储批明细，只抓取了入库单单身档，导致分摊到批号为空的批次上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>146测试复杂单据，很难自己做单。比如aapt430测试多仓储批的情况，涉及到入库单，对账单和请款单，只能根据作业代码看怎么追单。
-主要追单是
-#171012-00009#1   2018/01/26 By 07423    產生xcco_t資料時,考慮成本計算方式，但这笔中又套了其它追单
-#190322-00019#1
-#190315-00056#1
-#170525-00042#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.套单太多，可能还有没考虑的追单，导致新的问题
-2.追单中改了数据计算方式，由直接一个sql，改写成中间表方式，客户如果有客制，可能会被覆盖掉。
-在测试区追单测试，保证能解决客户的这个问题即可。</t>
+    <t>客户版本能否实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准是否由此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比程序差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬到正式区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户原始需求，希望根据成本料件取agli161的存货科目，而费用型料号取费用科目栏位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户环境只能根据存货科目带出应付科目，费用科目是销售模块使用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追单前确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和客户确认，能够接受使用理由码功能带出应付单身科目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试标准环境，和客户版本同样逻辑，但增加了根据入库理由码带出科目功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户和标准程序差异对比，需要追单#161104-00049#6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据客户使用作业吗，只追s_aapp131.4gl 这个作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追单后，客户环境测试，能够实现根据理由码带出应付单身科目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告知客户，作业已经调整完成，根据理由码可以带出科目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户验证没有问题，由客户2区搬到1区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户环境问题测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准作业是否解决这个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序差异对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否直接追单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料件分摊后，对应批号分摊的金额是0，实际aapt430有分摊金额。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试发现入库单是多仓储批的时候，分摊金额直接分摊到没有批号的料件上，导致对应批号的分摊成本是0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">标准改写了分摊逻辑，会考虑到多仓储批。#171012-00009#1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改写后的逻辑，需要额外追8个相关的单子，新增了4个新函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只为了调整多仓储批问题，增加这么多追单，后续出现新问题风险会变高，测试工作量也会变大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对这个问题单独调整并测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对客户无法抓取多仓储批入库的批号问题，单独调整。测试能正常抓取多仓储批的入库单，正常产生分摊记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交由用户测试验收，客户确认没有问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将作业搬到正式区使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调整的追单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新逻辑增加了4个函数，有4个旧函数不再使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套单的情况，不追可能导致新的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据客户情况，单独调整多仓储批情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>axcp500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效能追单，分享追单时遇到的一些问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分追单时必追的，但是还得自己判断下是否要追，如#200928-00040#1   调整SQL中除数为0的情况  ，不追axcp500是会报错的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这类必追的单，能否有些标识，省去追单时再去判断的时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axcp500这样大型作业，可能有多个效能追单，目前的情况时遇到只能能追的都追上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否再追单中标识该追单能提升的效能大概是怎么样的，这样可以先追效能影响比较大的单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样，有些是功能新增的单，能否也有标识，客户无需求可以不追。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分追单小范围内多个mark，如右图,很考验眼力，容易出错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似追单能否整段mark掉，然后整段新增？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +303,40 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFD48806"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -186,9 +387,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -290,6 +497,1525 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9507277" cy="1905266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487156</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>10012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8D60B4-393B-43FE-A2F5-37528CE3A916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15525750"/>
+          <a:ext cx="9897856" cy="3486637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39419</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>48003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9165B93E-A0B5-4C6B-AB65-B20FAB6218E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11458575"/>
+          <a:ext cx="9450119" cy="2705478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>401611</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCADBF3C-DAA6-4D61-AA01-946B8641B9A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7886700"/>
+          <a:ext cx="11183911" cy="3010320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>144220</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>10069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0077FABF-0FA0-4BC3-AAF5-C5BF9CE5FD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8829675" y="11496675"/>
+          <a:ext cx="9640645" cy="3896269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468199</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>124268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA52E916-DAD6-49DA-82F9-40C9DD0BD60E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19754850"/>
+          <a:ext cx="10564699" cy="3172268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15AE50E-AA30-44BB-9E33-FCFB7277F8A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="228599"/>
+          <a:ext cx="10544175" cy="4943475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>s_axcp500</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#181116-00032#1  2018/11/21 By 02295    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化增加索引 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#190513-00024#1  2019/07/17 By 05423    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化：暂存档栏位仅保留需要使用到的栏位 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#191003-00005#1  add #ODI-ORA# √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#200120-00015#1  2020/04/22 By 02295    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>s_axcp500_avg</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#171005-00021#1  2017/12/29 By 02294    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#191126-00022#1  2020/05/08 By 11515    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化 依赖上面 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#180420-00005#1  2018/04/25 By 02294    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>全柴客戶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-axcp500</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能優化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>回追產中  也会优化 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#171005-00021#1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内容 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#200928-00040#1  2020/09/29 By 02295    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调整</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中除数为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的情况 √ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#181116-00032#1  2018/11/21 By 02295    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化 √ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#181207-00006#1  2018/12/07 By 05423    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#190411-00017#1  2019/04/18 By 05423    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>改写表格连接，若为非查询字段，条件变为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXISTS B.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>改写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IN--&gt;EXISTS/UNION </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#                                                                                                  C.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>单位取位写法调整 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>新增</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>S-FIN-9024</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>判断结存调整是否产生 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F.BUG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>修正</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#190513-00024#1  2019/07/17 By 05423    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化：暂存档栏位仅保留需要使用到的栏位 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#200407-00021#1  2020/04/08 By 02295    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返工工单的计算时机以工单整单成本阶计算 套单    √  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#191111-00038#1  2019/11/13 By 02295    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#190411-00017#1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>此单效能优化遗留</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>未优化 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#191128-00004#1  2019/12/17 By 02295    s_axcp500_avg1_wip_3()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INSERT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一部分资料时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>在更新上期的资料前先将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>xccz_tmp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的数据重新收集</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这样在做</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>merge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>时就会因为数据收集的问题导致效能慢 √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#200408-00002#1  2020/04/09 By 02295    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:xccz</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>抓取上期资料时只抓取期末不为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>且资料不需要做排序  √</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#190305-00034#1  2019/03/11 By 05423    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>修正：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>s_axcp500_avg1_wip_3_p2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中加上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ORDER BY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，防止数据量大导致</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MERGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部死锁  不需要</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#200120-00015#1  2020/04/22 By 02295    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>效能优化  √  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#200928-00040#1  2020/09/29 By 02295    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调整</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中除数为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的情况  已经有了    √ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>106099</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>96167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E802F524-FC7E-42FC-97EA-8B06DF09F363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134475" y="5295900"/>
+          <a:ext cx="9488224" cy="6573167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -564,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232232E7-592A-4DC0-82DC-FC0C7064006B}">
-  <dimension ref="A13:C16"/>
+  <dimension ref="A13:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,17 +2304,17 @@
   <sheetData>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -599,26 +2325,116 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="3:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="3:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C34" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -629,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E2A468-E657-4660-AF22-AAACA709B2B0}">
-  <dimension ref="A13:C16"/>
+  <dimension ref="A13:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,51 +2459,202 @@
   <sheetData>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="114" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713521E7-B9B0-4BA6-968C-17CE9DA27C67}">
+  <dimension ref="A31:Q68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A34" location="axcp500效能追单!Q31" display="问题1" xr:uid="{A2A6C54E-C26D-46BF-8038-E4BEB5B51AA4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>